--- a/pred_ohlcv/54_21/2019-10-31 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 FX ohlcv.xlsx
@@ -1900,7 +1900,7 @@
         <v>22959.20398001889</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>47138.15528691544</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>48875.00569726027</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>78065.32534455757</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>78064.32534455757</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>77928.32534455757</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>55770.45314455757</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>55770.45314455757</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>35255.02394455757</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-235547.2168779215</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-242342.7008779215</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-235908.4753779215</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-235908.4753779215</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-234122.6355779216</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-234121.6355779216</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-237193.6160779216</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-237193.6160779216</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-238145.5494779216</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-238129.5494779216</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-27968.41137792155</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-32380.37417792156</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>106946.7745657227</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>108361.8050657227</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>108362.8050657227</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>122997.4827498954</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>121963.3897498954</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>122278.9190498954</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>80331.07824989535</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>79274.74022172633</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>79274.74022172633</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>79274.74022172633</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>79224.74022172633</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>77117.40222172633</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>77118.40222172633</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>76468.60132172632</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>76468.60132172632</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 FX ohlcv.xlsx
@@ -1432,7 +1432,7 @@
         <v>28843.75719726027</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>19970.37359726027</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>21901.40808001889</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>21901.40808001889</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>18858.91158001889</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>14535.66218001889</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>33252.10348001889</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>22959.20398001889</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>48875.00569726027</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>84228.60104455757</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>78065.32534455757</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>78064.32534455757</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>77928.32534455757</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>77930.32534455757</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>55770.45314455757</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>55770.45314455757</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-235908.4753779215</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-235908.4753779215</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-234122.6355779216</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-234121.6355779216</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-234121.6355779216</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-238129.5494779216</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-248377.8370779216</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-238924.4019779216</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-227905.3787779216</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-219648.5504779216</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-219648.5504779216</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-27968.41137792155</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-32380.37417792156</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>111876.6954657227</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>106946.7745657227</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>108361.8050657227</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>108362.8050657227</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>122997.4827498954</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>121963.3897498954</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>122278.9190498954</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>80331.07824989535</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>79274.74022172633</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>79274.74022172633</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>79274.74022172633</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>79224.74022172633</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>77117.40222172633</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>77118.40222172633</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>76468.60132172632</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>76468.60132172632</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
